--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/22/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/22/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2252252252252252</v>
+        <v>0.4837483748374838</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1347.347347347348</v>
+        <v>590.4390439043905</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04974974974974975</v>
+        <v>0.03195319531953195</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5815815815815816</v>
+        <v>0.06610661066106611</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>954.954954954955</v>
+        <v>1971.497149714972</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.7287287287288</v>
+        <v>839.7839783978397</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>858.858858858859</v>
+        <v>620.3420342034203</v>
       </c>
     </row>
   </sheetData>
